--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515544BF-C993-4D45-BBE8-E9F4977D3E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ABB66D-21E5-4B98-8179-2FA289FCBB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Address</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Location Name</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>SGD 20</t>
   </si>
 </sst>
 </file>
@@ -85,8 +91,16 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,9 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,11 +451,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03CB910-2091-4194-B89A-2366AC28D15A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="12.90625" customWidth="1"/>
@@ -445,19 +465,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -471,11 +491,11 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="1">
-        <v>20</v>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -488,11 +508,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>200</v>
       </c>
-      <c r="E3" s="1">
-        <v>20</v>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -505,11 +525,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>50</v>
       </c>
-      <c r="E4" s="1">
-        <v>20</v>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -522,11 +542,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>80</v>
       </c>
-      <c r="E5" s="1">
-        <v>20</v>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -539,14 +559,15 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>200</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ABB66D-21E5-4B98-8179-2FA289FCBB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B599BB6-4003-4A19-AE2A-659EED52CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Address</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Capacity</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Harry's Bar Boat Quay</t>
   </si>
   <si>
@@ -78,19 +75,13 @@
     <t>Location Name</t>
   </si>
   <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>SGD 20</t>
+    <t>Price (SGD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,11 +121,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +445,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,105 +458,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
+      <c r="E2" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>200</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
+      <c r="E3" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
+      <c r="E4" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>80</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
+      <c r="E5" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>200</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
+      <c r="E6" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B599BB6-4003-4A19-AE2A-659EED52CA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00140306-33C7-45C8-BA0D-423486271AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Address</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Price (SGD)</t>
+  </si>
+  <si>
+    <t>15-25</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,8 +490,8 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="3">
-        <v>20</v>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -504,8 +507,8 @@
       <c r="D3" s="1">
         <v>200</v>
       </c>
-      <c r="E3" s="3">
-        <v>20</v>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -521,8 +524,8 @@
       <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="3">
-        <v>20</v>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -538,8 +541,8 @@
       <c r="D5" s="1">
         <v>80</v>
       </c>
-      <c r="E5" s="3">
-        <v>20</v>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00140306-33C7-45C8-BA0D-423486271AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C51FA-E9C8-4D01-998D-81EDCAA63D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Address</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Price (SGD)</t>
-  </si>
-  <si>
-    <t>15-25</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,8 +487,8 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
+      <c r="E2" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -507,8 +504,8 @@
       <c r="D3" s="1">
         <v>200</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
+      <c r="E3" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -524,8 +521,8 @@
       <c r="D4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
+      <c r="E4" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -541,8 +538,8 @@
       <c r="D5" s="1">
         <v>80</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
+      <c r="E5" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C51FA-E9C8-4D01-998D-81EDCAA63D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1037AB-48B5-4F11-A72A-2F91DB289983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>Address</t>
   </si>
@@ -36,33 +36,6 @@
     <t>Capacity</t>
   </si>
   <si>
-    <t>Harry's Bar Boat Quay</t>
-  </si>
-  <si>
-    <t>28 Boat Quay Singapore 049818</t>
-  </si>
-  <si>
-    <t>Harry's Bar Chijmes</t>
-  </si>
-  <si>
-    <t>30 Victoria Street #01-14 Singapore 187996</t>
-  </si>
-  <si>
-    <t>17/19 Cuppage Road, Cuppage Terrace Singapore 229450</t>
-  </si>
-  <si>
-    <t>Harry's Bar Cuppage</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>3D River Valley Road, #01-01 Singapore 179023</t>
-  </si>
-  <si>
-    <t>Harry's Bar Clark Quay</t>
-  </si>
-  <si>
     <t xml:space="preserve">1/A Tampines Street 92 Singapore 528882 </t>
   </si>
   <si>
@@ -76,6 +49,237 @@
   </si>
   <si>
     <t>Price (SGD)</t>
+  </si>
+  <si>
+    <t>Al Capone's Sports Bar &amp; Dining</t>
+  </si>
+  <si>
+    <t>1 Stadium Place, #01-15, Kallang Wave Mall, Singapore 397628</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Brew House Sports Bar</t>
+  </si>
+  <si>
+    <t>56 Sembawang Road, #01-01/02, Hong Heng Mansions, Singapore 779086</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>BQ Bar</t>
+  </si>
+  <si>
+    <t>39 Boat Quay, Singapore 049828</t>
+  </si>
+  <si>
+    <t>Lion Brewery Co Taproom</t>
+  </si>
+  <si>
+    <t>36 Club Street, Singapore 069469</t>
+  </si>
+  <si>
+    <t>Dallas Restaurant &amp; Bar</t>
+  </si>
+  <si>
+    <t>31 Boat Quay, Singapore 049820</t>
+  </si>
+  <si>
+    <t>Brewerkz Riverside Point</t>
+  </si>
+  <si>
+    <t>30 Merchant Road, #01-07, Riverside Point, Singapore 058282</t>
+  </si>
+  <si>
+    <t>Brewerkz Orchard Rendezvous</t>
+  </si>
+  <si>
+    <t>1 Tanglin Road, #01-02, Orchard Rendezvous Hotel, Singapore 247905</t>
+  </si>
+  <si>
+    <t>Brewerkz Indoor Stadium</t>
+  </si>
+  <si>
+    <t>2 Stadium Walk, #01-06/07, Singapore Indoor Stadium, Singapore 397691</t>
+  </si>
+  <si>
+    <t>Brewerkz One Fullerton</t>
+  </si>
+  <si>
+    <t>1 Fullerton Road, #01-01, One Fullerton, Singapore 049213</t>
+  </si>
+  <si>
+    <t>Brewerkz East Coast Park</t>
+  </si>
+  <si>
+    <t>920 East Coast Parkway, #01-20/24, Singapore 449875</t>
+  </si>
+  <si>
+    <t>Brewerkz Seletar Aerospace</t>
+  </si>
+  <si>
+    <t>9 The Oval, Singapore 797867</t>
+  </si>
+  <si>
+    <t>Brewerkz Woodleigh Mall</t>
+  </si>
+  <si>
+    <t>11 Bidadari Park Drive, #02-20/20A, The Woodleigh Mall, Singapore 367803</t>
+  </si>
+  <si>
+    <t>Charlie's Restaurant &amp; Bar</t>
+  </si>
+  <si>
+    <t>32 Boat Quay, Singapore 049821</t>
+  </si>
+  <si>
+    <t>Muddy Murphy's</t>
+  </si>
+  <si>
+    <t>442 Orchard Road, #01-02 to 05, Claymore Connect, Singapore 238879</t>
+  </si>
+  <si>
+    <t>Hogs Bar</t>
+  </si>
+  <si>
+    <t>382 Joo Chiat Road, Singapore 427622</t>
+  </si>
+  <si>
+    <t>Harry's Angullia Park</t>
+  </si>
+  <si>
+    <t>545 Orchard Road, #01-01/02, Far East Shopping Centre, Singapore 238882</t>
+  </si>
+  <si>
+    <t>Harry's Boat Quay</t>
+  </si>
+  <si>
+    <t>28 Boat Quay, Singapore 049818</t>
+  </si>
+  <si>
+    <t>Harry's Changi Airport T3</t>
+  </si>
+  <si>
+    <t>65 Airport Boulevard, #02-08, Departure Transit Lounge North, Terminal 3, Changi Airport, Singapore 819663</t>
+  </si>
+  <si>
+    <t>Harry's CHIJMES</t>
+  </si>
+  <si>
+    <t>30 Victoria Street, #01-14, Singapore 187996</t>
+  </si>
+  <si>
+    <t>Harry's Clarke Quay</t>
+  </si>
+  <si>
+    <t>3D River Valley Road, #01-01, Singapore 179023</t>
+  </si>
+  <si>
+    <t>Harry's Cuppage Terrace</t>
+  </si>
+  <si>
+    <t>17/19 Cuppage Road, Cuppage Terrace, Singapore 229450</t>
+  </si>
+  <si>
+    <t>Harry's Dempsey Hill</t>
+  </si>
+  <si>
+    <t>Blk 11 Dempsey Road, #01-17A, Singapore 249673</t>
+  </si>
+  <si>
+    <t>Harry's Esplanade</t>
+  </si>
+  <si>
+    <t>8 Raffles Avenue, #01-05/07, Singapore 039802</t>
+  </si>
+  <si>
+    <t>Harry's HarbourFront</t>
+  </si>
+  <si>
+    <t>1 Maritime Square, #01-64, HarbourFront Centre, Singapore 099253</t>
+  </si>
+  <si>
+    <t>Harry's Holland Village</t>
+  </si>
+  <si>
+    <t>22 Lorong Mambong, Singapore 277681</t>
+  </si>
+  <si>
+    <t>Harry's Mapletree Business City</t>
+  </si>
+  <si>
+    <t>40 Pasir Panjang Road, #02-43/44, Singapore 117383</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Harry's Marina Bay Link Mall</t>
+  </si>
+  <si>
+    <t>8A Marina Boulevard, #01-03, Ground Plaza, Singapore 018984</t>
+  </si>
+  <si>
+    <t>Harry's Novena</t>
+  </si>
+  <si>
+    <t>238 Thomson Road, #01-59/60, Novena Square, Singapore 307683</t>
+  </si>
+  <si>
+    <t>Harry's Plaza Singapura</t>
+  </si>
+  <si>
+    <t>68 Orchard Road, #01-50, Plaza Singapura, Singapore 238839</t>
+  </si>
+  <si>
+    <t>Harry's Riverside Point</t>
+  </si>
+  <si>
+    <t>30 Merchant Road, #01-04, Singapore 058282</t>
+  </si>
+  <si>
+    <t>Harry's South Beach Avenue</t>
+  </si>
+  <si>
+    <t>26 Beach Road, #01-18, Singapore 189768</t>
+  </si>
+  <si>
+    <t>Harry's Tampines Grande</t>
+  </si>
+  <si>
+    <t>9 Tampines Grande, #01-19, Singapore 528735</t>
+  </si>
+  <si>
+    <t>Harry's Tai Seng</t>
+  </si>
+  <si>
+    <t>18 Tai Seng Street, #01-K4/23-25, Singapore 539775</t>
+  </si>
+  <si>
+    <t>Brotzeit VivoCity</t>
+  </si>
+  <si>
+    <t>1 HarbourFront Walk, #01-149/151, VivoCity, Singapore 098585</t>
+  </si>
+  <si>
+    <t>Brotzeit Raffles City</t>
+  </si>
+  <si>
+    <t>252 North Bridge Road, #01-17, Raffles City Shopping Centre, Singapore 179103</t>
+  </si>
+  <si>
+    <t>Brotzeit Westgate</t>
+  </si>
+  <si>
+    <t>3 Gateway Drive, #01-04, Westgate, Singapore 608532</t>
+  </si>
+  <si>
+    <t>Brotzeit Katong</t>
+  </si>
+  <si>
+    <t>126 East Coast Road, #01-01, I12 Katong, Singapore</t>
   </si>
 </sst>
 </file>
@@ -119,14 +323,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,25 +654,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03CB910-2091-4194-B89A-2366AC28D15A}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE6ECF-7C70-4084-966B-7420C68F1251}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -467,100 +679,660 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>100</v>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>150</v>
       </c>
       <c r="E2" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>200</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>100</v>
       </c>
       <c r="E3" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>80</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>150</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>150</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
+        <v>150</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>150</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>100</v>
+      </c>
+      <c r="E19" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>120</v>
+      </c>
+      <c r="E20" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>150</v>
+      </c>
+      <c r="E21" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>150</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5">
+        <v>150</v>
+      </c>
+      <c r="E27" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <v>100</v>
+      </c>
+      <c r="E28" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
+        <v>150</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5">
+        <v>100</v>
+      </c>
+      <c r="E34" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
+        <v>150</v>
+      </c>
+      <c r="E35" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>150</v>
+      </c>
+      <c r="E36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="5">
+        <v>150</v>
+      </c>
+      <c r="E37" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5">
+        <v>150</v>
+      </c>
+      <c r="E38" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
         <v>200</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E39" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1037AB-48B5-4F11-A72A-2F91DB289983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937B1DA3-FCA2-4B57-948E-CA790C8D180E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>Address</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Harry's Changi Airport T3</t>
   </si>
   <si>
-    <t>65 Airport Boulevard, #02-08, Departure Transit Lounge North, Terminal 3, Changi Airport, Singapore 819663</t>
-  </si>
-  <si>
     <t>Harry's CHIJMES</t>
   </si>
   <si>
@@ -279,7 +276,34 @@
     <t>Brotzeit Katong</t>
   </si>
   <si>
-    <t>126 East Coast Road, #01-01, I12 Katong, Singapore</t>
+    <t>65 Airport Boulevard, #02-08, Departure Transit Lounge North, Terminal 3</t>
+  </si>
+  <si>
+    <t>Katong, Singapore</t>
+  </si>
+  <si>
+    <t>48 Woodleigh Park, Singapore 357844</t>
+  </si>
+  <si>
+    <t>920 East Coast Parkway #01-28, Singapore 449875</t>
+  </si>
+  <si>
+    <t>Quinn’s The Irish Tavern (Millenia Walk)</t>
+  </si>
+  <si>
+    <t>Millenia Walk, Singapore</t>
+  </si>
+  <si>
+    <t>Quinn’s The Irish Tavern (River Valley)</t>
+  </si>
+  <si>
+    <t>River Valley, Singapore</t>
+  </si>
+  <si>
+    <t>Cafe Football (Woodleigh Park)</t>
+  </si>
+  <si>
+    <t>Cafe Football (East Coast Park)</t>
   </si>
 </sst>
 </file>
@@ -323,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,9 +358,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -655,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE6ECF-7C70-4084-966B-7420C68F1251}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,7 +717,7 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>150</v>
       </c>
       <c r="E2" s="3">
@@ -713,7 +734,7 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>100</v>
       </c>
       <c r="E3" s="3">
@@ -730,11 +751,11 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>80</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -747,7 +768,7 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>100</v>
       </c>
       <c r="E5" s="3">
@@ -764,11 +785,11 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>100</v>
       </c>
       <c r="E6" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -781,11 +802,11 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>200</v>
       </c>
       <c r="E7" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -798,11 +819,11 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>150</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -815,11 +836,11 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -832,11 +853,11 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>150</v>
       </c>
       <c r="E10" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -849,11 +870,11 @@
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>200</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -866,11 +887,11 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>150</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -883,11 +904,11 @@
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>150</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -900,11 +921,11 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -917,11 +938,11 @@
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -934,11 +955,11 @@
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>100</v>
       </c>
       <c r="E16" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -951,7 +972,7 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>100</v>
       </c>
       <c r="E17" s="3">
@@ -968,24 +989,24 @@
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>100</v>
       </c>
       <c r="E19" s="3">
@@ -994,15 +1015,15 @@
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>120</v>
       </c>
       <c r="E20" s="3">
@@ -1011,15 +1032,15 @@
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>150</v>
       </c>
       <c r="E21" s="3">
@@ -1028,15 +1049,15 @@
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>100</v>
       </c>
       <c r="E22" s="3">
@@ -1045,15 +1066,15 @@
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>150</v>
       </c>
       <c r="E23" s="3">
@@ -1062,15 +1083,15 @@
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>100</v>
       </c>
       <c r="E24" s="3">
@@ -1079,15 +1100,15 @@
     </row>
     <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>100</v>
       </c>
       <c r="E25" s="3">
@@ -1096,15 +1117,15 @@
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>100</v>
       </c>
       <c r="E26" s="3">
@@ -1113,15 +1134,15 @@
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>150</v>
       </c>
       <c r="E27" s="3">
@@ -1130,15 +1151,15 @@
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>100</v>
       </c>
       <c r="E28" s="3">
@@ -1147,15 +1168,15 @@
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>100</v>
       </c>
       <c r="E29" s="3">
@@ -1164,15 +1185,15 @@
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>100</v>
       </c>
       <c r="E30" s="3">
@@ -1181,15 +1202,15 @@
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>150</v>
       </c>
       <c r="E31" s="3">
@@ -1198,15 +1219,15 @@
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>100</v>
       </c>
       <c r="E32" s="3">
@@ -1215,15 +1236,15 @@
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>100</v>
       </c>
       <c r="E33" s="3">
@@ -1232,15 +1253,15 @@
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>100</v>
       </c>
       <c r="E34" s="3">
@@ -1249,58 +1270,58 @@
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>150</v>
       </c>
       <c r="E35" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>150</v>
       </c>
       <c r="E36" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3">
+        <v>150</v>
+      </c>
+      <c r="E37" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="5">
-        <v>150</v>
-      </c>
-      <c r="E37" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>84</v>
@@ -1308,27 +1329,95 @@
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>150</v>
       </c>
       <c r="E38" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
+        <v>150</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <v>150</v>
+      </c>
+      <c r="E40" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>150</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D43" s="5">
         <v>200</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E43" s="5">
         <v>0</v>
       </c>
     </row>

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937B1DA3-FCA2-4B57-948E-CA790C8D180E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E187EB4-606A-4F03-8340-D633A65A231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E187EB4-606A-4F03-8340-D633A65A231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F209FD0-1944-4FB1-BB6F-B5E8CF3F1EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Address</t>
   </si>
@@ -99,12 +99,6 @@
     <t>1 Tanglin Road, #01-02, Orchard Rendezvous Hotel, Singapore 247905</t>
   </si>
   <si>
-    <t>Brewerkz Indoor Stadium</t>
-  </si>
-  <si>
-    <t>2 Stadium Walk, #01-06/07, Singapore Indoor Stadium, Singapore 397691</t>
-  </si>
-  <si>
     <t>Brewerkz One Fullerton</t>
   </si>
   <si>
@@ -141,12 +135,6 @@
     <t>442 Orchard Road, #01-02 to 05, Claymore Connect, Singapore 238879</t>
   </si>
   <si>
-    <t>Hogs Bar</t>
-  </si>
-  <si>
-    <t>382 Joo Chiat Road, Singapore 427622</t>
-  </si>
-  <si>
     <t>Harry's Angullia Park</t>
   </si>
   <si>
@@ -292,12 +280,6 @@
   </si>
   <si>
     <t>Millenia Walk, Singapore</t>
-  </si>
-  <si>
-    <t>Quinn’s The Irish Tavern (River Valley)</t>
-  </si>
-  <si>
-    <t>River Valley, Singapore</t>
   </si>
   <si>
     <t>Cafe Football (Woodleigh Park)</t>
@@ -676,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE6ECF-7C70-4084-966B-7420C68F1251}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +720,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -772,7 +754,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -826,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -837,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E9" s="3">
         <v>25</v>
@@ -851,16 +833,16 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -868,16 +850,16 @@
         <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -885,7 +867,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>150</v>
@@ -894,7 +876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -905,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -922,13 +904,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -939,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -953,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>100</v>
@@ -967,47 +949,47 @@
         <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E19" s="3">
         <v>25</v>
@@ -1024,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>25</v>
@@ -1064,7 +1046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1075,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>25</v>
@@ -1098,7 +1080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1106,10 +1088,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E25" s="3">
         <v>25</v>
@@ -1117,10 +1099,10 @@
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -1134,16 +1116,16 @@
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>25</v>
@@ -1177,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E29" s="3">
         <v>25</v>
@@ -1208,10 +1190,10 @@
         <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3">
         <v>25</v>
@@ -1225,7 +1207,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3">
         <v>100</v>
@@ -1242,16 +1224,16 @@
         <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E33" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -1259,13 +1241,13 @@
         <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E34" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1276,7 +1258,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D35" s="3">
         <v>150</v>
@@ -1285,15 +1267,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3">
         <v>150</v>
@@ -1304,47 +1286,47 @@
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
         <v>150</v>
       </c>
       <c r="E37" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3">
         <v>150</v>
       </c>
       <c r="E38" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
         <v>150</v>
@@ -1354,70 +1336,19 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3">
-        <v>150</v>
-      </c>
-      <c r="E40" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3">
-        <v>150</v>
-      </c>
-      <c r="E41" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="3">
-        <v>150</v>
-      </c>
-      <c r="E42" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="D40" s="5">
         <v>200</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E40" s="5">
         <v>0</v>
       </c>
     </row>

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F209FD0-1944-4FB1-BB6F-B5E8CF3F1EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB5A38-A420-4C5E-A79F-7B33243048AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -660,9 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE6ECF-7C70-4084-966B-7420C68F1251}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -706,69 +704,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>80</v>
-      </c>
-      <c r="E4" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3">
         <v>25</v>
@@ -776,16 +774,16 @@
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3">
         <v>25</v>
@@ -793,30 +791,30 @@
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>150</v>
@@ -825,18 +823,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E10" s="3">
         <v>25</v>
@@ -844,27 +842,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>150</v>
       </c>
       <c r="E11" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -873,55 +871,55 @@
         <v>150</v>
       </c>
       <c r="E12" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E14" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E15" s="3">
         <v>25</v>
@@ -929,101 +927,101 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>100</v>
+      </c>
+      <c r="E19" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3">
-        <v>120</v>
-      </c>
-      <c r="E18" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
-        <v>150</v>
-      </c>
-      <c r="E19" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D21" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>25</v>
@@ -1031,33 +1029,33 @@
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E22" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E23" s="3">
         <v>25</v>
@@ -1065,10 +1063,10 @@
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -1082,13 +1080,13 @@
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
         <v>150</v>
@@ -1099,10 +1097,10 @@
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -1114,12 +1112,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
@@ -1133,10 +1131,10 @@
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
@@ -1150,13 +1148,13 @@
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3">
         <v>150</v>
@@ -1167,10 +1165,10 @@
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
@@ -1184,13 +1182,13 @@
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3">
         <v>100</v>
@@ -1201,13 +1199,13 @@
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3">
         <v>100</v>
@@ -1218,10 +1216,10 @@
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
@@ -1230,89 +1228,89 @@
         <v>150</v>
       </c>
       <c r="E33" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E34" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E36" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E37" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E38" s="3">
         <v>35</v>
@@ -1320,19 +1318,19 @@
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3">
         <v>150</v>
       </c>
       <c r="E39" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1353,6 +1351,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB5A38-A420-4C5E-A79F-7B33243048AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6704BA-773C-4C68-AA2F-18A1314EE22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>East</t>
   </si>
   <si>
-    <t>Location Name</t>
-  </si>
-  <si>
     <t>Price (SGD)</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Cafe Football (East Coast Park)</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -684,18 +684,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>150</v>
@@ -706,13 +706,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>80</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
@@ -740,10 +740,10 @@
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -757,13 +757,13 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>150</v>
@@ -774,13 +774,13 @@
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>150</v>
@@ -791,13 +791,13 @@
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -808,13 +808,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3">
         <v>150</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>150</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>150</v>
@@ -876,13 +876,13 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>150</v>
@@ -893,13 +893,13 @@
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3">
         <v>150</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
         <v>150</v>
@@ -944,13 +944,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3">
         <v>100</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>100</v>
@@ -978,13 +978,13 @@
     </row>
     <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
         <v>100</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
         <v>100</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
         <v>120</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3">
         <v>150</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
         <v>100</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3">
         <v>150</v>
@@ -1097,13 +1097,13 @@
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3">
         <v>100</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3">
         <v>100</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3">
         <v>100</v>
@@ -1148,13 +1148,13 @@
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D29" s="3">
         <v>150</v>
@@ -1165,13 +1165,13 @@
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
         <v>100</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3">
         <v>100</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
         <v>100</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3">
         <v>150</v>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
         <v>100</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3">
         <v>100</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3">
         <v>200</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="3">
         <v>150</v>

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6704BA-773C-4C68-AA2F-18A1314EE22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE314682-CFAD-4227-AC15-BB0025E5DBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>East</t>
   </si>
   <si>
-    <t>Price (SGD)</t>
-  </si>
-  <si>
     <t>Al Capone's Sports Bar &amp; Dining</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Est. Price Per Pax (SGD)</t>
   </si>
 </sst>
 </file>
@@ -660,19 +660,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE6ECF-7C70-4084-966B-7420C68F1251}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -684,18 +686,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
         <v>150</v>
@@ -706,13 +708,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>80</v>
@@ -723,13 +725,13 @@
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
@@ -740,10 +742,10 @@
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -757,13 +759,13 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>150</v>
@@ -774,13 +776,13 @@
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>150</v>
@@ -791,13 +793,13 @@
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -808,13 +810,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>150</v>
@@ -825,13 +827,13 @@
     </row>
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <v>150</v>
@@ -842,10 +844,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -859,13 +861,13 @@
     </row>
     <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>150</v>
@@ -876,13 +878,13 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
         <v>150</v>
@@ -893,13 +895,13 @@
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3">
         <v>150</v>
@@ -910,10 +912,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -927,13 +929,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
         <v>150</v>
@@ -944,13 +946,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>100</v>
@@ -961,13 +963,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3">
         <v>100</v>
@@ -978,13 +980,13 @@
     </row>
     <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
         <v>100</v>
@@ -995,13 +997,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3">
         <v>100</v>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -1029,13 +1031,13 @@
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3">
         <v>120</v>
@@ -1046,13 +1048,13 @@
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3">
         <v>150</v>
@@ -1063,13 +1065,13 @@
     </row>
     <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3">
         <v>100</v>
@@ -1080,13 +1082,13 @@
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
         <v>150</v>
@@ -1097,13 +1099,13 @@
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3">
         <v>100</v>
@@ -1114,13 +1116,13 @@
     </row>
     <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3">
         <v>100</v>
@@ -1131,13 +1133,13 @@
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
         <v>100</v>
@@ -1148,13 +1150,13 @@
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="3">
         <v>150</v>
@@ -1165,13 +1167,13 @@
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3">
         <v>100</v>
@@ -1182,13 +1184,13 @@
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
         <v>100</v>
@@ -1199,13 +1201,13 @@
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3">
         <v>100</v>
@@ -1216,13 +1218,13 @@
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3">
         <v>150</v>
@@ -1233,13 +1235,13 @@
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3">
         <v>100</v>
@@ -1250,10 +1252,10 @@
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
@@ -1267,10 +1269,10 @@
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -1284,13 +1286,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3">
         <v>100</v>
@@ -1301,13 +1303,13 @@
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3">
         <v>200</v>
@@ -1318,13 +1320,13 @@
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3">
         <v>150</v>

--- a/screenings.xlsx
+++ b/screenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE314682-CFAD-4227-AC15-BB0025E5DBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368BD719-D23A-4B41-BBE5-8AE2FCB2F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{010CC3F0-DFCB-4839-9665-95B8E91DA0C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Address</t>
   </si>
@@ -205,18 +205,6 @@
   </si>
   <si>
     <t>238 Thomson Road, #01-59/60, Novena Square, Singapore 307683</t>
-  </si>
-  <si>
-    <t>Harry's Plaza Singapura</t>
-  </si>
-  <si>
-    <t>68 Orchard Road, #01-50, Plaza Singapura, Singapore 238839</t>
-  </si>
-  <si>
-    <t>Harry's Riverside Point</t>
-  </si>
-  <si>
-    <t>30 Merchant Road, #01-04, Singapore 058282</t>
   </si>
   <si>
     <t>Harry's South Beach Avenue</t>
@@ -658,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DE6ECF-7C70-4084-966B-7420C68F1251}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A32" sqref="A32:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,7 +662,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -686,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -844,10 +832,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -861,10 +849,10 @@
     </row>
     <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -878,10 +866,10 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -895,10 +883,10 @@
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>55</v>
@@ -912,10 +900,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -929,10 +917,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1017,7 +1005,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -1218,16 +1206,16 @@
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>25</v>
@@ -1235,13 +1223,13 @@
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3">
         <v>100</v>
@@ -1250,111 +1238,77 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3">
         <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3">
+        <v>150</v>
+      </c>
+      <c r="E37" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="3">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3">
-        <v>100</v>
-      </c>
-      <c r="E37" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>200</v>
       </c>
-      <c r="E38" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3">
-        <v>150</v>
-      </c>
-      <c r="E39" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5">
-        <v>200</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="E38" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
-    <sortCondition ref="A1:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
+    <sortCondition ref="A1:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
